--- a/medicine/Œil et vue/Alexander_Mell/Alexander_Mell.xlsx
+++ b/medicine/Œil et vue/Alexander_Mell/Alexander_Mell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Mell, né le 17 février 1850 à Prague et mort le 30 septembre 1931 à Vienne, est un enseignant pour aveugles autrichien. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Mell est le fils de l'officier austro-hongrois Alexander Mell et de son épouse Josefa von Rosenbaum. Il est le frère de l'historien Anton Mell (de).
 Il étudie les sciences naturelles à l'Université de Graz et devient professeur au lycée de Maribor à partir de 1876. Il épouse Marie Rocek. Avec elle, il aura quatre enfants, dont l'écrivain Max Mell et l'actrice Mary Mell.
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1894 : Über den Kontakt der blinden Kinder mit der Natur
 1899 : Enzyklopädisches Handbuch des Blindenwesens
